--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/LabPro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/LabPro/5.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67D79A3-9503-4660-A455-E170898BCB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D3B2B-992A-4B5D-B174-CD42EB6AFD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="186">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>il codice fiscale è verificato dal gestionale</t>
+  </si>
+  <si>
+    <t>L'utente riceve una segnalazione che indica di aprire un ticket verso Proactive e uno dei Nostri addetti risolverà il proplema in assistenza remota</t>
   </si>
 </sst>
 </file>
@@ -1739,11 +1742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2249,13 +2252,21 @@
         <v>71</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="N15" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>185</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
@@ -2295,13 +2306,21 @@
         <v>71</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="N16" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="O16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>185</v>
+      </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -2409,9 +2428,7 @@
       <c r="E19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="33"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
@@ -2451,9 +2468,7 @@
       <c r="E20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -2491,9 +2506,7 @@
       <c r="E21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="33"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -2531,9 +2544,7 @@
       <c r="E22" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -2571,9 +2582,7 @@
       <c r="E23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -2611,9 +2620,7 @@
       <c r="E24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -2651,9 +2658,7 @@
       <c r="E25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -2691,9 +2696,7 @@
       <c r="E26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -2731,9 +2734,7 @@
       <c r="E27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
